--- a/public/JobRequisitionTemplate.xlsx
+++ b/public/JobRequisitionTemplate.xlsx
@@ -1,198 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29128"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_5F3438F1102DD89C640ED3E52489AC6E640D15CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Job Requisition" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Job Requisition" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
-  <si>
-    <t>Business Unit</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Job Start Date</t>
-  </si>
-  <si>
-    <t>Job End Date</t>
-  </si>
-  <si>
-    <t>Required Hours</t>
-  </si>
-  <si>
-    <t>Interview Mode</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Priority</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+  <si>
+    <t>Requisition ID</t>
+  </si>
+  <si>
+    <t>Position Title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Job Type</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Caste</t>
-  </si>
-  <si>
-    <t>Experience</t>
-  </si>
-  <si>
-    <t>No. of Positions</t>
-  </si>
-  <si>
-    <t>Education Qualification</t>
-  </si>
-  <si>
-    <t>Relaxation Policy</t>
-  </si>
-  <si>
-    <t>Marketing</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Roles &amp; Responsibilities</t>
+  </si>
+  <si>
+    <t>Grade ID</t>
+  </si>
+  <si>
+    <t>Employment Type</t>
+  </si>
+  <si>
+    <t>Eligibility Age Min</t>
+  </si>
+  <si>
+    <t>Eligibility Age Max</t>
+  </si>
+  <si>
+    <t>Mandatory Qualification</t>
+  </si>
+  <si>
+    <t>Preferred Qualification</t>
+  </si>
+  <si>
+    <t>Mandatory Experience</t>
+  </si>
+  <si>
+    <t>Preferred Experience</t>
+  </si>
+  <si>
+    <t>Probation Period</t>
+  </si>
+  <si>
+    <t>Documents Required</t>
+  </si>
+  <si>
+    <t>Min Credit Score</t>
+  </si>
+  <si>
+    <t>REQ-001</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Onsite</t>
+  </si>
+  <si>
+    <t>Responsible for backend development</t>
+  </si>
+  <si>
+    <t>Develop, test, and maintain APIs</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>Digital Marketer</t>
-  </si>
-  <si>
-    <t>2025-09-01</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Acme Corp</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
     <t>Full-time</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>2-4 years</t>
-  </si>
-  <si>
-    <t>MBA</t>
-  </si>
-  <si>
-    <t>Age relaxation for SC/ST</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>Frontend Developer</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>2026-03-15</t>
-  </si>
-  <si>
-    <t>Offline</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>Tech Ltd</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Part-time</t>
-  </si>
-  <si>
-    <t>OBC</t>
-  </si>
-  <si>
-    <t>0-2 years</t>
-  </si>
-  <si>
     <t>B.Tech</t>
   </si>
   <si>
-    <t>No relaxation</t>
+    <t>M.Tech</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>Resume, ID proof, Certificates</t>
+  </si>
+  <si>
+    <t>750</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,29 +154,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,14 +511,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T101"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="8" max="9" width="35" customWidth="1"/>
+    <col min="19" max="19" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,144 +577,1098 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="D2">
-        <v>50000</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="G2">
-        <v>160</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="L3" s="3">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="S2" t="s">
+      <c r="O3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="T3" t="s">
         <v>35</v>
       </c>
-      <c r="D3">
-        <v>60000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3">
-        <v>180</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="S76" s="2"/>
+    </row>
+    <row r="77" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="S77" s="2"/>
+    </row>
+    <row r="78" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="S78" s="2"/>
+    </row>
+    <row r="79" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="S79" s="2"/>
+    </row>
+    <row r="80" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="S80" s="2"/>
+    </row>
+    <row r="81" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="S81" s="2"/>
+    </row>
+    <row r="82" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="S82" s="2"/>
+    </row>
+    <row r="83" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="S83" s="2"/>
+    </row>
+    <row r="84" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="S84" s="2"/>
+    </row>
+    <row r="85" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="S85" s="2"/>
+    </row>
+    <row r="86" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="S86" s="2"/>
+    </row>
+    <row r="87" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="S87" s="2"/>
+    </row>
+    <row r="88" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="S88" s="2"/>
+    </row>
+    <row r="89" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="S89" s="2"/>
+    </row>
+    <row r="90" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="S90" s="2"/>
+    </row>
+    <row r="91" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="S91" s="2"/>
+    </row>
+    <row r="92" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="S92" s="2"/>
+    </row>
+    <row r="93" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="S93" s="2"/>
+    </row>
+    <row r="94" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="S94" s="2"/>
+    </row>
+    <row r="95" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="S95" s="2"/>
+    </row>
+    <row r="96" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="S96" s="2"/>
+    </row>
+    <row r="97" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="S97" s="2"/>
+    </row>
+    <row r="98" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="S98" s="2"/>
+    </row>
+    <row r="99" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="S99" s="2"/>
+    </row>
+    <row r="100" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="S100" s="2"/>
+    </row>
+    <row r="101" ht="30" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="S101" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Job Type" sqref="M2:M101" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Full-time,Part-time,Contract,Internship"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Caste" sqref="O2:O101" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"General,OBC,SC,ST"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Experience" sqref="P2:P101" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>"0-2 years,2-4 years,4-6 years,6+ years"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Education Qualification" sqref="R2:R101" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>"B.Tech,MBA,MCA,B.Sc,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Relaxation Policy" sqref="S2:S101" xr:uid="{00000000-0002-0000-0000-000008000000}">
-      <formula1>"No relaxation,Age relaxation for SC/ST,Special case"</formula1>
+  <dataValidations count="26">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Requisition ID" sqref="A10:A101">
+      <formula1>"REQ-001,REQ-002,REQ-003"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Requisition ID" sqref="A2:A101">
+      <formula1>"REQ-001,REQ-002,REQ-003"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Country" sqref="D10:D101">
+      <formula1>"India,USA,Germany"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Country" sqref="D2:D101">
+      <formula1>"India,USA,Germany"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid State" sqref="E10:E101">
+      <formula1>"Karnataka,Maharashtra,California"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid State" sqref="E2:E101">
+      <formula1>"Karnataka,Maharashtra,California"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid City" sqref="F10:F101">
+      <formula1>"Bangalore,Mumbai,San Francisco"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid City" sqref="F2:F101">
+      <formula1>"Bangalore,Mumbai,San Francisco"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Location" sqref="G10:G101">
+      <formula1>"Remote,Onsite,Hybrid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Location" sqref="G2:G101">
+      <formula1>"Remote,Onsite,Hybrid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Grade ID" sqref="J10:J101">
+      <formula1>"A1,B1,C1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Grade ID" sqref="J2:J101">
+      <formula1>"A1,B1,C1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Employment Type" sqref="K10:K101">
+      <formula1>"Full-time,Part-time,Contract"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Employment Type" sqref="K2:K101">
+      <formula1>"Full-time,Part-time,Contract"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Number" error="Enter a valid number for Eligibility Age Min" sqref="L10:L101">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Number" error="Enter a valid number for Eligibility Age Min" sqref="L2:L101">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Number" error="Enter a valid number for Eligibility Age Max" sqref="M10:M101">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Number" error="Enter a valid number for Eligibility Age Max" sqref="M2:M101">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Mandatory Qualification" sqref="N10:N101">
+      <formula1>"B.Tech,MBA,MCA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Mandatory Qualification" sqref="N2:N101">
+      <formula1>"B.Tech,MBA,MCA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Preferred Qualification" sqref="O10:O101">
+      <formula1>"PhD,M.Tech,PGDM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Input" error="Please select a valid Preferred Qualification" sqref="O2:O101">
+      <formula1>"PhD,M.Tech,PGDM"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Number" error="Enter a valid number for Mandatory Experience" sqref="P10:P101">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Number" error="Enter a valid number for Mandatory Experience" sqref="P2:P101">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Number" error="Enter a valid number for Preferred Experience" sqref="Q10:Q101">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Number" error="Enter a valid number for Preferred Experience" sqref="Q2:Q101">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>